--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3082165.357636089</v>
+        <v>3187104.587811455</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8300323.363245656</v>
+        <v>8316640.810306287</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>224.393519107313</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>101.6181953608713</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>116.7933546766178</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.5688763742497</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>2.48278443985193</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>62.4543911760235</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>1.150047559653912</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>17.12088903522918</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>172.1170678881899</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>125.9478145498176</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>11.61592966729468</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>189.9469761066697</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>30.85302310518039</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>172.6684446854161</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2002,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.6849833227418</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.155999212081729</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.8725945129789</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>141.4513012076586</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>221.9873400524092</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>14.53306611597334</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784682</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>27.77749086859478</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>167.7926244180741</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>103.8784673763403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>14.73874327217618</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>40.37234576591481</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>80.90831282609496</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>119.6255281319621</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>83.29550035394011</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1458.811090838976</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C2" t="n">
-        <v>1458.811090838976</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2334.995479147967</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410103</v>
+        <v>2003.932591804396</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139989</v>
+        <v>2003.932591804396</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.550262878909</v>
+        <v>2003.932591804396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1845.410930903097</v>
+        <v>2003.932591804396</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271522</v>
+        <v>614.1395525925794</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271522</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271522</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>362.8175152271522</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>215.9275677292418</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>834.9321317361096</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271522</v>
+        <v>834.9321317361096</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271522</v>
+        <v>614.1395525925794</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528559</v>
+        <v>1505.18439714251</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528559</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528559</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>2226.386616461892</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450751</v>
+        <v>1895.323729118321</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180637</v>
+        <v>1895.323729118321</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.890142568492</v>
+        <v>1895.323729118321</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>1505.18439714251</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>795.2798542473295</v>
+        <v>349.0604424885606</v>
       </c>
       <c r="C7" t="n">
-        <v>626.3436713194226</v>
+        <v>349.0604424885606</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>349.0604424885606</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>201.1473489061675</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672846</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798489</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592602</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556418</v>
+        <v>758.6984582168177</v>
       </c>
       <c r="X7" t="n">
-        <v>795.2798542473295</v>
+        <v>530.7089073188004</v>
       </c>
       <c r="Y7" t="n">
-        <v>795.2798542473295</v>
+        <v>530.7089073188004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1774.969111598455</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="C8" t="n">
-        <v>1406.006594658043</v>
+        <v>1292.17643427345</v>
       </c>
       <c r="D8" t="n">
-        <v>1406.006594658043</v>
+        <v>1292.17643427345</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>906.3881816752053</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993391</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267227</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662577</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.568951662577</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.4107598040972</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
         <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.662300227039</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1258.977812021152</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1258.977812021152</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>1030.988261123135</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>810.195681979605</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5239,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>448.1846595309963</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>943.510265746755</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373307</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
         <v>1540.888753373307</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532803</v>
+        <v>950.1865537761979</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2439.734801547855</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2256.879967202759</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2037.2785022257</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1748.203275569898</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1493.518787364011</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1204.10161732705</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.30903818352</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6071,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1063.573343591573</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>894.6371606636665</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1245.221808421813</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>774.5813465708488</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6420,16 @@
         <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.240688199802</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6485,28 +6487,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6528,25 +6530,25 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913852</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
         <v>1336.167399417937</v>
@@ -6555,13 +6557,13 @@
         <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6658,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6740,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032296</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1807.973581098312</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1553.289092892425</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1263.871922855465</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1035.882371957447</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841095</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>2970.825600989577</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>2801.88941806167</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3373.266644963347</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>3152.474065819817</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998682</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.605706616408</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.188536579448</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.19898568143</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>2646.594662309226</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D43" t="n">
-        <v>2646.594662309226</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309226</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7642,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.6979859831846</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C46" t="n">
-        <v>755.7618030552777</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>605.645163642942</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1327.139029956954</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y46" t="n">
-        <v>1106.346450813424</v>
+        <v>906.400451171542</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>98.24448441976841</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>194.8566322838568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.5618377758860333</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.21924749803996</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.74287850523348</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.982661438910554</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>64.53565828418178</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>271.9899322206177</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.4693302300331</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>210.970912116861</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>211.7652975579132</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>205.614685510496</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>26.8084345146071</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726950.7641414206</v>
+        <v>735269.4626429197</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726950.7641414206</v>
+        <v>735269.4626429197</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>714792.4902389279</v>
+        <v>714792.490238928</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="O2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.548361852765082e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810783</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810805</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810798</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756643</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26445,19 +26447,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756624</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756541</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-806791.3727858461</v>
+        <v>-626004.2810766187</v>
       </c>
       <c r="C6" t="n">
-        <v>521953.372941748</v>
+        <v>488747.5024993006</v>
       </c>
       <c r="D6" t="n">
-        <v>521953.3729417467</v>
+        <v>329326.2325014089</v>
       </c>
       <c r="E6" t="n">
         <v>270381.0827407365</v>
       </c>
       <c r="F6" t="n">
-        <v>595793.5445480919</v>
+        <v>595793.5445480918</v>
       </c>
       <c r="G6" t="n">
+        <v>595793.5445480917</v>
+      </c>
+      <c r="H6" t="n">
         <v>595793.5445480915</v>
       </c>
-      <c r="H6" t="n">
-        <v>595793.5445480919</v>
-      </c>
       <c r="I6" t="n">
+        <v>595793.5445480915</v>
+      </c>
+      <c r="J6" t="n">
+        <v>428188.3667381096</v>
+      </c>
+      <c r="K6" t="n">
+        <v>595793.5445480916</v>
+      </c>
+      <c r="L6" t="n">
+        <v>547499.5745399011</v>
+      </c>
+      <c r="M6" t="n">
+        <v>510738.5166125802</v>
+      </c>
+      <c r="N6" t="n">
         <v>595793.5445480918</v>
       </c>
-      <c r="J6" t="n">
-        <v>378262.3421508141</v>
-      </c>
-      <c r="K6" t="n">
-        <v>595793.5445480919</v>
-      </c>
-      <c r="L6" t="n">
-        <v>595793.5445480919</v>
-      </c>
-      <c r="M6" t="n">
-        <v>510738.51661258</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>595793.5445480921</v>
       </c>
-      <c r="O6" t="n">
-        <v>595793.5445480919</v>
-      </c>
       <c r="P6" t="n">
-        <v>595793.5445480919</v>
+        <v>595793.5445480916</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>130.28952251337</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>149.4270547675908</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>50.45346642201005</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>114.4569318847785</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>248.5624656886101</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>307.2767095024456</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>144.2710004632773</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.588766353808</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>209.8133021840719</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>280.9282311918938</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>155.6308914313331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>96.26486209894315</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29746,13 +29748,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="33">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>351.6082511035024</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>344.6306853939244</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32309,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>300.768778117042</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>616.375287159485</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32731,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32789,13 +32791,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330458</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>630.8026878560996</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>134.72848811719</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>333.9544784328825</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,10 +33736,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>207.939011051685</v>
       </c>
       <c r="K36" t="n">
-        <v>379.8551982710416</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>301.9817606876396</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,28 +34444,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>465.2641870096817</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>465.1758167018089</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>217.6338436891722</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>206.7892464195654</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35893,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>169.4270660337087</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>473.7790427150405</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317166</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>488.6686539340813</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.754080702859717</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>191.358233988438</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,10 +37384,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>81.10138438501833</v>
       </c>
       <c r="K36" t="n">
-        <v>242.0137592966826</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317824</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3187104.587811455</v>
+        <v>3183008.946306689</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>74.7780321824449</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>101.6181953608713</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>116.7933546766178</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>28.72285818236659</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>176.682013783068</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.48278443985193</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>1.150047559653912</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>125.9478145498176</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>347.7899866460176</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>189.9469761066697</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>135.259425062653</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>30.85302310518039</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>172.6684446854161</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>166.6849833227418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>113.8725945129789</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>141.4513012076586</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>14.53306611597334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>167.7926244180741</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>14.73874327217618</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>40.37234576591481</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>140.1230996349833</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>80.90831282609496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>83.29550035394011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.332751740275</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>882.4984498491583</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>524.2327512424079</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>138.4444986441636</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2334.995479147967</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.932591804396</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>2003.932591804396</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>2003.932591804396</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>2003.932591804396</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.1395525925794</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1504.849725527083</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.34930177307</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="W4" t="n">
-        <v>834.9321317361096</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>834.9321317361096</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.1395525925794</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.18439714251</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.221880202098</v>
+        <v>1077.003065952737</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>718.737367345987</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>718.737367345987</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>307.7514625563794</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>296.0871163210724</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2226.386616461892</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1895.323729118321</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1895.323729118321</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1895.323729118321</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.18439714251</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4652,10 +4652,10 @@
         <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
         <v>1565.661695681274</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.0604424885606</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>349.0604424885606</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>349.0604424885606</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>201.1473489061675</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4725,7 +4725,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253778</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168177</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7089073188004</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7089073188004</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.138951213861</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.17643427345</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1292.17643427345</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="E8" t="n">
-        <v>906.3881816752053</v>
+        <v>764.3411331473101</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>757.3956323981066</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213861</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>628.5472171493652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.662300227039</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1258.977812021152</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.977812021152</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.988261123135</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.195681979605</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433612</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>126.9915788876469</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>139.234765840794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>139.234765840794</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
         <v>2283.159972732779</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.1865537761979</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1063.573343591573</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>894.6371606636665</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1466.014387565343</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1245.221808421813</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>924.6979859831846</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>924.6979859831846</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>774.5813465708488</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1327.139029956954</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1106.346450813424</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>633.4413279836774</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1807.973581098312</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1553.289092892425</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1263.871922855465</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.882371957447</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>815.0897928139171</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7016,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2970.825600989577</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>2801.88941806167</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>2651.772778649335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2651.772778649335</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>3373.266644963347</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>3152.474065819817</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.605706616408</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.188536579448</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.19898568143</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7405,55 +7405,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.02150088521</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.95314511566539</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8303,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>98.24448441976841</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>98.24448441976853</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>48.42266963728726</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>194.8566322838568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>44.7370056418722</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>144.634190040853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5618377758860333</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.74287850523348</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.982661438910554</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>271.9899322206177</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>118.3918499711701</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>210.970912116861</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>211.7652975579132</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714792.4902389279</v>
+        <v>714792.490238928</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
@@ -26441,16 +26441,16 @@
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.200356756644</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="L4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756541</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26459,7 +26459,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-626004.2810766187</v>
+        <v>-626004.2810766188</v>
       </c>
       <c r="C6" t="n">
-        <v>488747.5024993006</v>
+        <v>488747.5024993008</v>
       </c>
       <c r="D6" t="n">
-        <v>329326.2325014089</v>
+        <v>329326.2325014088</v>
       </c>
       <c r="E6" t="n">
-        <v>270381.0827407365</v>
+        <v>270033.7034863794</v>
       </c>
       <c r="F6" t="n">
-        <v>595793.5445480918</v>
+        <v>595446.1652937348</v>
       </c>
       <c r="G6" t="n">
-        <v>595793.5445480917</v>
+        <v>595446.1652937348</v>
       </c>
       <c r="H6" t="n">
-        <v>595793.5445480915</v>
+        <v>595446.165293735</v>
       </c>
       <c r="I6" t="n">
-        <v>595793.5445480915</v>
+        <v>595446.1652937345</v>
       </c>
       <c r="J6" t="n">
-        <v>428188.3667381096</v>
+        <v>427840.9874837522</v>
       </c>
       <c r="K6" t="n">
-        <v>595793.5445480916</v>
+        <v>595446.165293735</v>
       </c>
       <c r="L6" t="n">
-        <v>547499.5745399011</v>
+        <v>547152.195285544</v>
       </c>
       <c r="M6" t="n">
-        <v>510738.5166125802</v>
+        <v>510391.137358223</v>
       </c>
       <c r="N6" t="n">
-        <v>595793.5445480918</v>
+        <v>595446.165293735</v>
       </c>
       <c r="O6" t="n">
-        <v>595793.5445480921</v>
+        <v>595446.1652937351</v>
       </c>
       <c r="P6" t="n">
-        <v>595793.5445480916</v>
+        <v>595446.165293735</v>
       </c>
     </row>
   </sheetData>
@@ -26700,13 +26700,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26795,16 +26795,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>332.0980135592665</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>149.4270547675908</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>50.45346642201005</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>165.9396021793709</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>124.3365387793373</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>248.5624656886101</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2710004632773</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>280.9282311918938</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>63.1317390074359</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>96.26486209894315</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
     </row>
     <row r="11">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29748,13 +29748,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>351.6082511035024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>508.8976500257891</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>616.375287159485</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32788,31 +32788,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>630.8026878560996</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>424.0909547148531</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,10 +33736,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>207.939011051685</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>316.0872899694776</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>465.2641870096817</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34789,7 +34789,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>446.1502447085393</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>465.1758167018089</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>489.4415840126424</v>
       </c>
       <c r="O6" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>217.6338436891722</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>366.7636161037707</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>473.7790427150405</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>488.6686539340813</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>281.4947102704086</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>81.10138438501833</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>173.4910455250332</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>327.4227480353227</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3183008.946306689</v>
+        <v>3184769.476609476</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>74.7780321824449</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.124078168943399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>54.809093817841</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>28.72285818236659</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>130.4874138296979</v>
       </c>
       <c r="H5" t="n">
-        <v>176.682013783068</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.259425062653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187851</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>32.84316668127826</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>98.20549876776153</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>190.7368854541452</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U28" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.1230996349833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>39.17658763086867</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.46096678957</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C2" t="n">
-        <v>882.4984498491583</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="D2" t="n">
-        <v>524.2327512424079</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="E2" t="n">
-        <v>138.4444986441636</v>
+        <v>479.072874127204</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>68.08696933759643</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>56.42262310228936</v>
       </c>
       <c r="H2" t="n">
         <v>51.2467865680031</v>
@@ -4330,13 +4330,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4412,22 +4412,22 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>888.4518357083929</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>719.515652780486</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>569.3990133681502</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>421.4859197857571</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>274.5959722878467</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>106.6095075961253</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>106.6095075961253</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4515,25 +4515,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1504.849725527083</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1281.871244721818</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1281.871244721818</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V4" t="n">
-        <v>1281.871244721818</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W4" t="n">
-        <v>1281.871244721818</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.881693823801</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.0891146802707</v>
+        <v>888.4518357083929</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1445.965582893149</v>
+        <v>1321.266375419619</v>
       </c>
       <c r="C5" t="n">
-        <v>1077.003065952737</v>
+        <v>952.3038584792075</v>
       </c>
       <c r="D5" t="n">
-        <v>718.737367345987</v>
+        <v>594.0381598724571</v>
       </c>
       <c r="E5" t="n">
-        <v>718.737367345987</v>
+        <v>594.0381598724571</v>
       </c>
       <c r="F5" t="n">
-        <v>307.7514625563794</v>
+        <v>183.0522550828495</v>
       </c>
       <c r="G5" t="n">
-        <v>296.0871163210724</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -5007,7 +5007,7 @@
         <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168596</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556949</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433592</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>415.5933575433592</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>268.7034100454488</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>268.7034100454488</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>126.9915788876469</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5776,16 +5776,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
         <v>740.5562989961525</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,19 +6010,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,25 +6214,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,34 +6244,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6685,52 +6685,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7356,7 +7356,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.95314511566539</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>98.24448441976853</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>48.42266963728726</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>120.3791545843333</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U28" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>212.9610556929593</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714792.490238928</v>
+        <v>714792.4902389279</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
@@ -26346,16 +26346,16 @@
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756661</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756644</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-626004.2810766188</v>
+        <v>-626004.2810766185</v>
       </c>
       <c r="C6" t="n">
-        <v>488747.5024993008</v>
+        <v>488747.502499301</v>
       </c>
       <c r="D6" t="n">
         <v>329326.2325014088</v>
       </c>
       <c r="E6" t="n">
-        <v>270033.7034863794</v>
+        <v>270346.3448153005</v>
       </c>
       <c r="F6" t="n">
-        <v>595446.1652937348</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="G6" t="n">
-        <v>595446.1652937348</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="H6" t="n">
-        <v>595446.165293735</v>
+        <v>595758.8066226558</v>
       </c>
       <c r="I6" t="n">
-        <v>595446.1652937345</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="J6" t="n">
-        <v>427840.9874837522</v>
+        <v>428153.6288126737</v>
       </c>
       <c r="K6" t="n">
-        <v>595446.165293735</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="L6" t="n">
-        <v>547152.195285544</v>
+        <v>547464.8366144655</v>
       </c>
       <c r="M6" t="n">
-        <v>510391.137358223</v>
+        <v>510703.7786871446</v>
       </c>
       <c r="N6" t="n">
-        <v>595446.165293735</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="O6" t="n">
-        <v>595446.1652937351</v>
+        <v>595758.8066226563</v>
       </c>
       <c r="P6" t="n">
-        <v>595446.165293735</v>
+        <v>595758.8066226562</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>332.0980135592665</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>295.894474393462</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>49.98750138605958</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>165.9396021793709</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>281.0602889432561</v>
       </c>
       <c r="H5" t="n">
-        <v>124.3365387793373</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28101,10 +28101,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.350437922406729e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28155,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34780,7 +34780,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34789,16 +34789,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>446.1502447085393</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,16 +35026,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>489.4415840126424</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
